--- a/qa/01.测试用例/道具系统/道具基础逻辑/道具基础逻辑测试用例.xlsx
+++ b/qa/01.测试用例/道具系统/道具基础逻辑/道具基础逻辑测试用例.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1198">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -3874,29 +3874,701 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>文字内容</t>
+  </si>
+  <si>
+    <t>世界频道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会频道</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统公告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家自己</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具已使用成功</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>该属性值已达到最大值，无法继续使用该道具</t>
+  </si>
+  <si>
+    <t>玩家开启宝箱类道具但需求道具不足</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求道具不足，不能开启宝箱</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面文字,途径的相关开放条件未达成</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_notopen1</t>
+  </si>
+  <si>
+    <t>副本解锁未开放,点击相关副本获取途径</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本未开启</t>
+  </si>
+  <si>
+    <t>record_notopen2</t>
+  </si>
+  <si>
+    <t>record_notopen3</t>
+  </si>
+  <si>
+    <t>分解功能未开放,点击分解界面获取途径</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解功能未开启</t>
+  </si>
+  <si>
+    <t>record_notopen4</t>
+  </si>
+  <si>
+    <t>该商店未开启</t>
+  </si>
+  <si>
+    <t>record_notopen5</t>
+  </si>
+  <si>
+    <t>尚未加入公会</t>
+  </si>
+  <si>
+    <t>record_item_found2</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看道具tips获得途径显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>未配置获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置了获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面不显示获得途径区域的框，tips界面整体缩短</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面显示获得途径区域的框</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看获得途径区域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径区域包含标题和获得途径条目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看获得途径标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看获得途径条目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径条目根据配置内容显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置只有大分类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示格式为[大类名称]: 进入(文字)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置有大分类和子分类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看获得途径条目数量显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置1个获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置2个获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置3个获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置4个获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示1行获得途径条目，获得途径区域显示3行位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示2行获得途径条目，获得途径区域显示3行位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示3行获得途径条目，获得途径区域显示3行位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看获得途径显示规则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置途径功能未开启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置途径功能已开启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径文字显示正常，显示引导按钮图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应功能显示跳转测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips界面获得途径显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本类引导内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【副本】：副本名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本id1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本id2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【副本】：副本1对应名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【副本】：副本2对应名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击引导内容条目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本未开启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出对应副本的副本阵容选择界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置功能未开启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置功能已开启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本已开启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示信息record_notopen2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置分解类引导内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为道具分解</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为宠物分解</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解宠物确认界面</t>
+  </si>
+  <si>
+    <t>显示为【分解】：xx分解</t>
+  </si>
+  <si>
+    <t>打开分解界面对应分页签</t>
+  </si>
+  <si>
+    <t>显示为【分解】：道具分解</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【分解】：宠物分解</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示信息record_notopen3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置商店类引导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【商店】：xx商店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为公会商店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为普通商店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为通天商店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【商店】：公会商店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【商店】：普通商店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【商店】：通天商店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击引导内容条目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示信息record_notopen4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开对应商店界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置商城类引导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开商城界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置抽奖类引导</t>
+  </si>
+  <si>
+    <t>打开抽奖界面</t>
+  </si>
+  <si>
+    <t>配置公会类引导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【公会】：公会xx</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为公会任务</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【公会】：公会任务</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为公会boss1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为公会boss2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【公会】：公会boss1名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【公会】：公会boss2名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示信息record_notopen5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入对应公会功能界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转界面保留测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在功能A中跳转获得途径界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开被跳转的途径对应界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭跳转的途径对应界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回功能A界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次跳转途径获得界面A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开途径A对应界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>从途径A界面跳转到途径B界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开途径B对应界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭途径B界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回途径A对应功能界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭途径A对应功能界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不返回原功能A界面，返回主界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次跳转</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次跳转保留最近跳转过来的功能界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示格式为[大类名称]: [子分类]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径文字显示红色，不显示引导按钮图，点击弹出提示信息见后边测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置合成类引导内容</t>
+  </si>
+  <si>
+    <t>显示为【合成】：xx合成</t>
+  </si>
+  <si>
+    <t>配置为材料合成</t>
+  </si>
+  <si>
+    <t>显示为【合成】：材料合成</t>
+  </si>
+  <si>
+    <t>配置为宝石合成</t>
+  </si>
+  <si>
+    <t>显示为【合成】：宝石合成</t>
+  </si>
+  <si>
+    <t>打开合成界面对应分页签</t>
+  </si>
+  <si>
+    <t>显示为【商城】：进入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【抽奖】：进入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商店未开启（等级不足）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会商店未开启（未加入公会）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔商店未开启（等级不足）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为【日常】</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能已开启-玩家无工会</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能已开启-玩家有工会</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>从途径A界面跳转到途径A界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1253</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>255/204/0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1254</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1257</t>
+  </si>
+  <si>
+    <t>弹出提示信息record_notopen1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1258</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1259</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示record_item_found2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1260</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示tips途径界面测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看界面中道具tips是否显示获得途径信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认购买界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力购买使用界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴合成宠物确认界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开宝箱界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡结果展示界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具tips中不显示获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具tips中不显示获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具tips中不显示获得途径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成展示界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>触发条件</t>
-  </si>
-  <si>
     <t>提示范围</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>文字内容</t>
-  </si>
-  <si>
     <t>对应英文</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界频道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会频道</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
@@ -3912,10 +4584,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>系统公告</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>im_record_001</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -3928,10 +4596,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>道具已使用成功</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
     <t>im_record_002</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -3940,61 +4604,23 @@
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>该属性值已达到最大值，无法继续使用该道具</t>
-  </si>
-  <si>
     <t>im_record_003</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>玩家开启宝箱类道具但需求道具不足</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求道具不足，不能开启宝箱</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
     <t>record_item_found1</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>界面文字,途径的相关开放条件未达成</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
     <t>条件尚未达成</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>record_notopen1</t>
-  </si>
-  <si>
-    <t>副本解锁未开放,点击相关副本获取途径</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家自己</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本未开启</t>
-  </si>
-  <si>
-    <t>record_notopen2</t>
-  </si>
-  <si>
-    <t>record_notopen3</t>
-  </si>
-  <si>
-    <t>分解功能未开放,点击分解界面获取途径</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解功能未开启</t>
-  </si>
-  <si>
-    <t>record_notopen4</t>
+    <t>合成功能未开放,点击合成界面获取途径</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成功能未开启</t>
   </si>
   <si>
     <t>未加入商店,点击对应商店的获取途径
@@ -4002,23 +4628,10 @@
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>该商店未开启</t>
-  </si>
-  <si>
-    <t>record_notopen5</t>
-  </si>
-  <si>
     <t>未加入公会,点击对应公会的获取途径</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>尚未加入公会</t>
-  </si>
-  <si>
-    <t>record_item_found2</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
     <t>途径引导的为当前界面</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
@@ -4027,436 +4640,30 @@
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>基本</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看道具tips获得途径显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>未配置获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置了获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面不显示获得途径区域的框，tips界面整体缩短</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面显示获得途径区域的框</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看获得途径区域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得途径区域包含标题和获得途径条目</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看获得途径标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>如图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看获得途径条目</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得途径条目根据配置内容显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置只有大分类</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示格式为[大类名称]: 进入(文字)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置有大分类和子分类</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示格式为[大类名称]: [子分类]进入(文字)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看获得途径条目数量显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置1个获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置2个获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置3个获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置4个获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示1行获得途径条目，获得途径区域显示3行位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示2行获得途径条目，获得途径区域显示3行位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示3行获得途径条目，获得途径区域显示3行位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看获得途径显示规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置途径功能未开启</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置途径功能已开启</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>途径文字显示红色，不显示引导按钮图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>途径文字显示正常，显示引导按钮图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应功能显示跳转测试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips界面获得途径显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置副本类引导内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【副本】：副本名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置副本id1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置副本id2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【副本】：副本1对应名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【副本】：副本2对应名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击引导内容条目</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置副本未开启</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示信息record_notopen1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出对应副本的副本阵容选择界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置功能未开启</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置功能已开启</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置副本已开启</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示信息record_notopen2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置分解类引导内容</t>
-  </si>
-  <si>
-    <t>配置分解类引导内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为道具分解</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为宠物分解</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解宠物确认界面</t>
-  </si>
-  <si>
-    <t>显示为【分解】：xx分解</t>
-  </si>
-  <si>
-    <t>配置为材料分解</t>
-  </si>
-  <si>
-    <t>显示为【分解】：材料分解</t>
-  </si>
-  <si>
-    <t>配置为宝石分解</t>
-  </si>
-  <si>
-    <t>显示为【分解】：宝石分解</t>
-  </si>
-  <si>
-    <t>打开分解界面对应分页签</t>
-  </si>
-  <si>
-    <t>分解功能未开放,点击分解界面获取途径</t>
-  </si>
-  <si>
-    <t>显示为【分解】：道具分解</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【分解】：宠物分解</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示信息record_notopen3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置商店类引导</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【商店】：xx商店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为公会商店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为普通商店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为通天商店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【商店】：公会商店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【商店】：普通商店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【商店】：通天商店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击引导内容条目</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示信息record_notopen4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开对应商店界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置商城类引导</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【商城】：商城</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开商城界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置抽奖类引导</t>
-  </si>
-  <si>
-    <t>显示为【抽奖】：抽奖</t>
-  </si>
-  <si>
-    <t>打开抽奖界面</t>
-  </si>
-  <si>
-    <t>配置公会类引导</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【公会】：公会xx</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为公会任务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【公会】：公会任务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为公会boss1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为公会boss2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【公会】：公会boss1名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为【公会】：公会boss2名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示信息record_notopen5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入对应公会功能界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转界面保留测试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>在功能A中跳转获得途径界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开被跳转的途径对应界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭跳转的途径对应界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回功能A界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次跳转途径获得界面A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开途径A对应界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>从途径A界面跳转到途径B界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开途径B对应界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭途径B界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回途径A对应功能界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭途径A对应功能界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>不返回原功能A界面，返回主界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>多次跳转</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>多次跳转保留最近跳转过来的功能界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>配置任务类引导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1277</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1279</t>
   </si>
 </sst>
 </file>
@@ -5415,7 +5622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5787,12 +5994,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5852,6 +6053,18 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="144">
@@ -6000,168 +6213,17 @@
     <cellStyle name="好 2" xfId="86"/>
     <cellStyle name="检查单元格 2" xfId="32"/>
   </cellStyles>
-  <dxfs count="223">
+  <dxfs count="186">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7822,186 +7884,6 @@
         <color indexed="48"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8468,6 +8350,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37456</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>408946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="1819979"/>
+          <a:ext cx="3199756" cy="3122867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -8986,10 +8911,10 @@
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -10232,9 +10157,9 @@
       <c r="C1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
     </row>
     <row r="2" spans="1:10" s="37" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
@@ -10496,7 +10421,7 @@
       <c r="E20" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="138" t="s">
+      <c r="F20" s="136" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="67" t="s">
@@ -10508,7 +10433,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="137" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="67" t="s">
@@ -10517,7 +10442,7 @@
       <c r="H21" s="82"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F22" s="139" t="s">
+      <c r="F22" s="137" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="67" t="s">
@@ -10526,7 +10451,7 @@
       <c r="H22" s="82"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F23" s="139" t="s">
+      <c r="F23" s="137" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="67" t="s">
@@ -10535,7 +10460,7 @@
       <c r="H23" s="82"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F24" s="139" t="s">
+      <c r="F24" s="137" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="67" t="s">
@@ -10544,7 +10469,7 @@
       <c r="H24" s="82"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F25" s="139" t="s">
+      <c r="F25" s="137" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="67" t="s">
@@ -10742,7 +10667,7 @@
       <c r="B41" s="134"/>
       <c r="D41" s="134"/>
       <c r="F41" s="67" t="s">
-        <v>1090</v>
+        <v>1066</v>
       </c>
       <c r="G41" s="67" t="s">
         <v>991</v>
@@ -11384,47 +11309,47 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K1:IS2 A1:B2 E2:J2 E1:H1 E33:IS33 A3:IS3 A56:J67 A49:IS49 A51:IS52 A50:H50 J50:IS50 A54:IS55 A53:H53 J53:IS53 E11:IS19 H20:IS32 A11:D33 H4:H33 A34:IS46 A68:B1048576 C68:IS65403">
-    <cfRule type="cellIs" dxfId="202" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="78" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="79" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="200" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="84" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="85" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="198" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="86" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="87" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:IS67">
-    <cfRule type="cellIs" dxfId="196" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94">
-    <cfRule type="expression" dxfId="194" priority="3">
+    <cfRule type="expression" dxfId="177" priority="3">
       <formula>G94&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:IS48">
-    <cfRule type="cellIs" dxfId="193" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16485,265 +16410,265 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1 A2:B2 A4:B4 A27:E27 A43:E43 A9:B26 A392:D65797 H139:I139 H27:J27 H3:IS3 A44:G50 A65:G74 A75:E76 H133:J138 K133:IS162 H163:IS163 A34:G42 A51:E64 K4:IS110 A77:G110 H34:J94 H95:I95 H96:J110 A133:G163 H140:J162 H14:J14 E1:IS2 E4:J4 E392:IS1048576 A5:J8 A126:IS132 A28:I33 E9:J13 E15:J26 A111:IS123 A341:IS341 A346:IS361">
-    <cfRule type="cellIs" dxfId="191" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="189" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="141" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="142" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="187" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="143" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="144" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="185" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="145" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="146" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C4 C9:C26">
-    <cfRule type="cellIs" dxfId="183" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="147" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="148" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D4 D9:D26 E14:G14">
-    <cfRule type="cellIs" dxfId="181" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="149" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="150" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="cellIs" dxfId="179" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="129" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="130" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:F125 H124:IS125">
-    <cfRule type="cellIs" dxfId="177" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124:G125">
-    <cfRule type="cellIs" dxfId="175" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="173" priority="47">
+    <cfRule type="expression" dxfId="156" priority="47">
       <formula>J37&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:G62">
-    <cfRule type="cellIs" dxfId="172" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:G63">
-    <cfRule type="cellIs" dxfId="170" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="expression" dxfId="168" priority="42">
+    <cfRule type="expression" dxfId="151" priority="42">
       <formula>J96&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J154">
-    <cfRule type="expression" dxfId="167" priority="41">
+    <cfRule type="expression" dxfId="150" priority="41">
       <formula>J154&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:J172 H181:J187 H180 J180 H174:J179 H173 J173 H189:J194 J188 H195 J195 H196:J197 H199:J211 H198 J198 H212 J212 H316:J317 H321:J327 I318:J320 J328:J329 H330:J340 J315">
-    <cfRule type="cellIs" dxfId="166" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H167 J167 H214:J215 H213 J213 H219:J219 J216 J220 H221:J221 J231:J235 H236:J237 H231 H165:J166 I217:J218 H216:H218 H223:J230 H222 J222 H246:J250 H238:H245 J238:J245 H252:J252 H251 J251 H254:J257 H253 J253 J260:J314 J258 H259:J259">
-    <cfRule type="cellIs" dxfId="164" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="162" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232:H235">
-    <cfRule type="cellIs" dxfId="160" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:J164">
-    <cfRule type="cellIs" dxfId="158" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188">
-    <cfRule type="cellIs" dxfId="156" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H314">
-    <cfRule type="cellIs" dxfId="154" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H260:I264 H266:I266 H265 H268:I269 H267">
-    <cfRule type="cellIs" dxfId="152" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274:I278 H280:I280 H279 H282:I283 H281">
-    <cfRule type="cellIs" dxfId="150" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H288:I292 H294:I294 H293 H296:I297 H295">
-    <cfRule type="cellIs" dxfId="148" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H302:I306 H308:I308 H307 H310:I311 H309">
-    <cfRule type="cellIs" dxfId="146" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H258">
-    <cfRule type="cellIs" dxfId="144" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H270:I271 H273:I273">
-    <cfRule type="cellIs" dxfId="142" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H272">
-    <cfRule type="cellIs" dxfId="140" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H284:I285 H287:I287">
-    <cfRule type="cellIs" dxfId="138" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286">
-    <cfRule type="cellIs" dxfId="136" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H298:I299 H301:I301">
-    <cfRule type="cellIs" dxfId="134" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H300">
-    <cfRule type="cellIs" dxfId="132" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H312:I313 H315:I315">
-    <cfRule type="cellIs" dxfId="130" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342:J345">
-    <cfRule type="cellIs" dxfId="128" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17036,34 +16961,34 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1 A2:D2 A16:D65451 E1:IS2 E16:IS1048576 A3:IS15">
-    <cfRule type="cellIs" dxfId="126" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="39" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="124" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="122" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="120" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17280,7 +17205,7 @@
       <c r="D11" s="134">
         <v>1</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="138" t="s">
         <v>151</v>
       </c>
       <c r="F11" s="67"/>
@@ -17313,7 +17238,7 @@
       <c r="C13" s="67"/>
       <c r="D13" s="134"/>
       <c r="E13" s="67"/>
-      <c r="F13" s="141" t="s">
+      <c r="F13" s="139" t="s">
         <v>153</v>
       </c>
       <c r="G13" s="67" t="s">
@@ -17335,7 +17260,7 @@
       <c r="C14" s="67"/>
       <c r="D14" s="134"/>
       <c r="E14" s="67"/>
-      <c r="F14" s="141" t="s">
+      <c r="F14" s="139" t="s">
         <v>154</v>
       </c>
       <c r="G14" s="67" t="s">
@@ -17352,7 +17277,7 @@
       <c r="C15" s="67"/>
       <c r="D15" s="134"/>
       <c r="E15" s="67"/>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="139" t="s">
         <v>155</v>
       </c>
       <c r="G15" s="67" t="s">
@@ -17369,7 +17294,7 @@
       <c r="C16" s="67"/>
       <c r="D16" s="134"/>
       <c r="E16" s="67"/>
-      <c r="F16" s="141" t="s">
+      <c r="F16" s="139" t="s">
         <v>156</v>
       </c>
       <c r="G16" s="67" t="s">
@@ -17386,7 +17311,7 @@
       <c r="C17" s="67"/>
       <c r="D17" s="134"/>
       <c r="E17" s="67"/>
-      <c r="F17" s="141" t="s">
+      <c r="F17" s="139" t="s">
         <v>157</v>
       </c>
       <c r="G17" s="67" t="s">
@@ -17403,7 +17328,7 @@
       <c r="C18" s="67"/>
       <c r="D18" s="134"/>
       <c r="E18" s="67"/>
-      <c r="F18" s="141" t="s">
+      <c r="F18" s="139" t="s">
         <v>158</v>
       </c>
       <c r="G18" s="67" t="s">
@@ -17425,7 +17350,7 @@
       <c r="F19" s="67" t="s">
         <v>955</v>
       </c>
-      <c r="G19" s="142" t="s">
+      <c r="G19" s="140" t="s">
         <v>957</v>
       </c>
       <c r="H19" s="84"/>
@@ -17438,7 +17363,7 @@
       <c r="F20" s="67" t="s">
         <v>956</v>
       </c>
-      <c r="G20" s="142" t="s">
+      <c r="G20" s="140" t="s">
         <v>958</v>
       </c>
       <c r="H20" s="84"/>
@@ -17647,7 +17572,7 @@
       <c r="C33" s="67"/>
       <c r="D33" s="134"/>
       <c r="E33" s="67"/>
-      <c r="F33" s="141"/>
+      <c r="F33" s="139"/>
       <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -17666,7 +17591,7 @@
       <c r="F34" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="G34" s="142" t="s">
+      <c r="G34" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H34" s="23" t="s">
@@ -17681,7 +17606,7 @@
       <c r="F35" s="67" t="s">
         <v>544</v>
       </c>
-      <c r="G35" s="142" t="s">
+      <c r="G35" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H35" s="93" t="s">
@@ -17696,7 +17621,7 @@
       <c r="F36" s="67" t="s">
         <v>545</v>
       </c>
-      <c r="G36" s="142" t="s">
+      <c r="G36" s="140" t="s">
         <v>552</v>
       </c>
       <c r="H36" s="93" t="s">
@@ -17711,7 +17636,7 @@
       <c r="F37" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="G37" s="142" t="s">
+      <c r="G37" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H37" s="93" t="s">
@@ -17726,7 +17651,7 @@
       <c r="F38" s="67" t="s">
         <v>547</v>
       </c>
-      <c r="G38" s="142" t="s">
+      <c r="G38" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H38" s="93" t="s">
@@ -17741,7 +17666,7 @@
       <c r="F39" s="67" t="s">
         <v>548</v>
       </c>
-      <c r="G39" s="142" t="s">
+      <c r="G39" s="140" t="s">
         <v>553</v>
       </c>
       <c r="H39" s="93" t="s">
@@ -17756,7 +17681,7 @@
       <c r="F40" s="67" t="s">
         <v>549</v>
       </c>
-      <c r="G40" s="142" t="s">
+      <c r="G40" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H40" s="93" t="s">
@@ -17771,7 +17696,7 @@
       <c r="F41" s="67" t="s">
         <v>550</v>
       </c>
-      <c r="G41" s="142" t="s">
+      <c r="G41" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H41" s="93" t="s">
@@ -17786,7 +17711,7 @@
       <c r="F42" s="67" t="s">
         <v>551</v>
       </c>
-      <c r="G42" s="142" t="s">
+      <c r="G42" s="140" t="s">
         <v>553</v>
       </c>
       <c r="H42" s="93" t="s">
@@ -17805,7 +17730,7 @@
       <c r="F43" s="67" t="s">
         <v>554</v>
       </c>
-      <c r="G43" s="142" t="s">
+      <c r="G43" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H43" s="93" t="s">
@@ -17820,7 +17745,7 @@
       <c r="F44" s="67" t="s">
         <v>555</v>
       </c>
-      <c r="G44" s="142" t="s">
+      <c r="G44" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H44" s="93" t="s">
@@ -17835,7 +17760,7 @@
       <c r="F45" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="G45" s="142" t="s">
+      <c r="G45" s="140" t="s">
         <v>563</v>
       </c>
       <c r="H45" s="93" t="s">
@@ -17850,7 +17775,7 @@
       <c r="F46" s="67" t="s">
         <v>557</v>
       </c>
-      <c r="G46" s="142" t="s">
+      <c r="G46" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H46" s="93" t="s">
@@ -17865,7 +17790,7 @@
       <c r="F47" s="67" t="s">
         <v>558</v>
       </c>
-      <c r="G47" s="142" t="s">
+      <c r="G47" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H47" s="93" t="s">
@@ -17880,7 +17805,7 @@
       <c r="F48" s="67" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="142" t="s">
+      <c r="G48" s="140" t="s">
         <v>564</v>
       </c>
       <c r="H48" s="93" t="s">
@@ -17895,7 +17820,7 @@
       <c r="F49" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="G49" s="142" t="s">
+      <c r="G49" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H49" s="93" t="s">
@@ -17910,7 +17835,7 @@
       <c r="F50" s="67" t="s">
         <v>561</v>
       </c>
-      <c r="G50" s="142" t="s">
+      <c r="G50" s="140" t="s">
         <v>245</v>
       </c>
       <c r="H50" s="93" t="s">
@@ -17925,7 +17850,7 @@
       <c r="F51" s="67" t="s">
         <v>562</v>
       </c>
-      <c r="G51" s="142" t="s">
+      <c r="G51" s="140" t="s">
         <v>564</v>
       </c>
       <c r="H51" s="93" t="s">
@@ -17938,7 +17863,7 @@
       <c r="D52" s="134"/>
       <c r="E52" s="67"/>
       <c r="F52" s="67"/>
-      <c r="G52" s="142"/>
+      <c r="G52" s="140"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="2:9" s="64" customFormat="1" x14ac:dyDescent="0.35">
@@ -17955,7 +17880,7 @@
         <v>566</v>
       </c>
       <c r="F53" s="67"/>
-      <c r="G53" s="142" t="s">
+      <c r="G53" s="140" t="s">
         <v>567</v>
       </c>
       <c r="H53" s="93" t="s">
@@ -17974,7 +17899,7 @@
       <c r="F54" s="67" t="s">
         <v>495</v>
       </c>
-      <c r="G54" s="142" t="s">
+      <c r="G54" s="140" t="s">
         <v>569</v>
       </c>
       <c r="H54" s="93" t="s">
@@ -17989,7 +17914,7 @@
       <c r="F55" s="67" t="s">
         <v>494</v>
       </c>
-      <c r="G55" s="142"/>
+      <c r="G55" s="140"/>
       <c r="H55" s="93" t="s">
         <v>967</v>
       </c>
@@ -18097,114 +18022,114 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1 A2:B2 A7:G8 H5:J6 A27:D32 A5:F6 K5:IS8 H3:IS3 E9:J11 H7:I7 H27:IS29 A43:G57 A33:G33 A34:D42 A62:D65432 A58:A61 E62:G1048576 E1:IS2 E4:J4 H23:J23 H22 J22 H8 J8 H12:H13 J13 A13:G22 H14:J21 K12:IS26 A24:J26 H30 J30:IS30 H31:IS58 H60:IS1048576 H59 J59:IS59">
-    <cfRule type="cellIs" dxfId="118" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="33" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="116" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="114" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="112" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="110" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="108" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="cellIs" dxfId="106" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 K4:IS4 A12:E12 I12:J12 A23:E23 K9:IS11 A9:B11">
-    <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="21" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4 C9:C11">
-    <cfRule type="cellIs" dxfId="102" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="25" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D9:D11">
-    <cfRule type="cellIs" dxfId="100" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="27" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E29 E30:G32">
-    <cfRule type="cellIs" dxfId="98" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="96" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="94" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G42">
-    <cfRule type="cellIs" dxfId="92" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18230,7 +18155,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -19245,271 +19170,271 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1 A2:B2 A53:B53 D53 A54:A60 A61:E61 A31:B31 H32:IS32 H3:IS3 A33:B47 C41:G45 E48:E50 A48:D52 E51:F53 E36:F37 A62:D65518 K33:IS1048576 E75:F76 E1:IS2 F33:G35 E31:IS31 E38:G40 H33:J61 A4:IS30 E77:G1048576 H75:J1048576 E62:J74">
-    <cfRule type="cellIs" dxfId="90" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="197" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="198" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="198" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="88" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="205" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="206" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="86" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="207" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="208" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="84" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="209" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="210" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C36:C40 C31">
-    <cfRule type="cellIs" dxfId="82" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="211" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="212" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="212" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D36:D37 D31">
-    <cfRule type="cellIs" dxfId="80" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="213" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="214" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="214" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:G32">
-    <cfRule type="cellIs" dxfId="78" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="181" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="182" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="76" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="175" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="176" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C35">
-    <cfRule type="cellIs" dxfId="74" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="177" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="178" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D35">
-    <cfRule type="cellIs" dxfId="72" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="179" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="180" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:F47">
-    <cfRule type="cellIs" dxfId="70" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="169" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="170" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="170" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="cellIs" dxfId="68" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="171" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="172" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D47">
-    <cfRule type="cellIs" dxfId="66" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="173" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="174" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F50">
-    <cfRule type="cellIs" dxfId="64" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="161" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="162" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="62" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="155" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="156" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="60" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="149" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="150" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="58" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="147" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="148" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="56" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="145" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="146" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="54" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="139" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="140" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:G53 G61">
-    <cfRule type="cellIs" dxfId="52" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="135" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="136" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C60">
-    <cfRule type="cellIs" dxfId="50" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D40">
-    <cfRule type="cellIs" dxfId="48" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="109" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="110" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="46" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="107" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="108" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:D60">
-    <cfRule type="cellIs" dxfId="44" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B60 E57:F57 E58:G60 F54:G56">
-    <cfRule type="cellIs" dxfId="42" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:D58">
-    <cfRule type="cellIs" dxfId="40" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E56">
-    <cfRule type="cellIs" dxfId="38" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:C56">
-    <cfRule type="cellIs" dxfId="36" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:D56">
-    <cfRule type="cellIs" dxfId="34" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="cellIs" dxfId="32" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="28" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="26" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G66">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19521,11 +19446,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -19538,7 +19463,7 @@
     <col min="6" max="6" width="23.75" style="67" customWidth="1"/>
     <col min="7" max="7" width="30.75" style="67" customWidth="1"/>
     <col min="8" max="8" width="6.25" style="134" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="67" customWidth="1"/>
+    <col min="9" max="9" width="12" style="67" customWidth="1"/>
     <col min="10" max="10" width="17.125" style="67" customWidth="1"/>
     <col min="11" max="16384" width="9" style="67"/>
   </cols>
@@ -19550,9 +19475,9 @@
       <c r="C1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
     </row>
     <row r="2" spans="1:10" s="37" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
@@ -19600,30 +19525,39 @@
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="B4" s="134" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>1037</v>
+        <v>1019</v>
+      </c>
+      <c r="H4" s="134" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I4" s="123" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F5" s="67" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>1038</v>
+        <v>1020</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -19631,10 +19565,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>1040</v>
+        <v>1022</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -19642,37 +19579,49 @@
         <v>3</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="F7" s="67" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>1046</v>
+        <v>1028</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F8" s="67" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>1047</v>
+        <v>1029</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F9" s="67" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>1048</v>
+        <v>1135</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" s="67" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>1049</v>
+        <v>1136</v>
+      </c>
+      <c r="H10" s="134" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -19680,472 +19629,789 @@
         <v>4</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>1050</v>
+        <v>1030</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>1051</v>
+        <v>1031</v>
+      </c>
+      <c r="H11" s="134" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F12" s="67" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>1053</v>
+        <v>1033</v>
+      </c>
+      <c r="H12" s="134" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I12" s="123" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F13" s="67" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="G13" s="67" t="s">
-        <v>1055</v>
+        <v>1113</v>
+      </c>
+      <c r="H13" s="134" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="E14" s="67" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>1061</v>
+        <v>1040</v>
+      </c>
+      <c r="H14" s="134" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="F15" s="67" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="G15" s="67" t="s">
-        <v>1062</v>
+        <v>1041</v>
+      </c>
+      <c r="H15" s="134" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="F16" s="67" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.35">
+        <v>1042</v>
+      </c>
+      <c r="H16" s="134" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F17" s="67" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1042</v>
+      </c>
+      <c r="H17" s="134" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E18" s="67" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1114</v>
+      </c>
+      <c r="H18" s="134" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I18" s="123" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F19" s="67" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="G19" s="67" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1046</v>
+      </c>
+      <c r="H19" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="134" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="G21" s="67" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1051</v>
+      </c>
+      <c r="H21" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F22" s="67" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="G22" s="67" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1054</v>
+      </c>
+      <c r="H22" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F23" s="67" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1055</v>
+      </c>
+      <c r="H23" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E24" s="67" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="G24" s="67" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1146</v>
+      </c>
+      <c r="H24" s="134" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I24" s="123" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F25" s="67" t="s">
-        <v>1084</v>
+        <v>1061</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1058</v>
+      </c>
+      <c r="H25" s="134" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I25" s="123" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D26" s="134">
         <v>2</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>1086</v>
+        <v>1115</v>
       </c>
       <c r="G26" s="67" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1116</v>
+      </c>
+      <c r="H26" s="134" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F27" s="67" t="s">
-        <v>1092</v>
+        <v>1117</v>
       </c>
       <c r="G27" s="67" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1118</v>
+      </c>
+      <c r="H27" s="134" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F28" s="67" t="s">
-        <v>1094</v>
+        <v>1119</v>
       </c>
       <c r="G28" s="67" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1120</v>
+      </c>
+      <c r="H28" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E29" s="67" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
       <c r="G29" s="67" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1062</v>
+      </c>
+      <c r="H29" s="134" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F30" s="67" t="s">
-        <v>1083</v>
+        <v>1060</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1121</v>
+      </c>
+      <c r="H30" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D31" s="134">
         <v>3</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>1087</v>
+        <v>1063</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+      <c r="H31" s="157" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F32" s="67" t="s">
-        <v>1088</v>
+        <v>1064</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+        <v>1069</v>
+      </c>
+      <c r="H32" s="157" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F33" s="67" t="s">
-        <v>1089</v>
+        <v>1065</v>
       </c>
       <c r="G33" s="67" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+        <v>1070</v>
+      </c>
+      <c r="H33" s="157" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E34" s="67" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+        <v>1071</v>
+      </c>
+      <c r="H34" s="134" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F35" s="67" t="s">
-        <v>1083</v>
+        <v>1060</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+        <v>1068</v>
+      </c>
+      <c r="H35" s="134" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D36" s="134">
         <v>4</v>
       </c>
       <c r="E36" s="67" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H36" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F37" s="67" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F38" s="67" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G38" s="67" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H38" s="134" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F39" s="67" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G39" s="67" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H39" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E40" s="67" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G40" s="67" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H40" s="134" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="F41" s="67" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G41" s="67" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H41" s="135" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="F42" s="67" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H42" s="135" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F43" s="67" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G43" s="67" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H43" s="134" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D44" s="134">
+        <v>5</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G44" s="67" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H44" s="157" t="s">
+        <v>944</v>
+      </c>
+      <c r="I44" s="123" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E45" s="67" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G45" s="67" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H45" s="157" t="s">
+        <v>944</v>
+      </c>
+      <c r="I45" s="123" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D46" s="134">
+        <v>6</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H46" s="157" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E47" s="67" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H47" s="157" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D48" s="134">
+        <v>7</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H48" s="157" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E49" s="67" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G49" s="67" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H49" s="157" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D50" s="134">
+        <v>8</v>
+      </c>
+      <c r="E50" s="67" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G50" s="67" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H50" s="157" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F51" s="67" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H51" s="157" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F52" s="67" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H52" s="157" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F53" s="67" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G53" s="67" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H53" s="157" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E54" s="67" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H54" s="157" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F55" s="67" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H55" s="157" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="F56" s="67" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G56" s="67" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H56" s="157" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="134" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D58" s="134">
+        <v>1</v>
+      </c>
+      <c r="E58" s="67" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G58" s="67" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H58" s="134" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D59" s="134">
+        <v>2</v>
+      </c>
+      <c r="E59" s="67" t="s">
         <v>1101</v>
       </c>
-      <c r="G36" s="67" t="s">
+      <c r="G59" s="67" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F37" s="67" t="s">
+      <c r="H59" s="134" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D60" s="134">
+        <v>3</v>
+      </c>
+      <c r="E60" s="67" t="s">
         <v>1103</v>
       </c>
-      <c r="G37" s="67" t="s">
+      <c r="G60" s="67" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H60" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="135"/>
+      <c r="D61" s="135">
+        <v>4</v>
+      </c>
+      <c r="E61" s="67" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H61" s="135" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I61" s="123" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D62" s="134">
+        <v>5</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G62" s="67" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F38" s="67" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G38" s="67" t="s">
+      <c r="H62" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D63" s="134">
+        <v>6</v>
+      </c>
+      <c r="E63" s="67" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F39" s="67" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G39" s="67" t="s">
+      <c r="G63" s="67" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E40" s="67" t="s">
+      <c r="H63" s="134" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D64" s="134">
+        <v>7</v>
+      </c>
+      <c r="E64" s="67" t="s">
         <v>1109</v>
       </c>
-      <c r="F40" s="67" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G40" s="67" t="s">
+      <c r="G64" s="67" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F41" s="67" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G41" s="67" t="s">
+      <c r="H64" s="134" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D65" s="134">
+        <v>8</v>
+      </c>
+      <c r="E65" s="67" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D42" s="134">
-        <v>5</v>
-      </c>
-      <c r="E42" s="67" t="s">
+      <c r="G65" s="67" t="s">
         <v>1112</v>
       </c>
-      <c r="G42" s="67" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E43" s="67" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G43" s="67" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D44" s="134">
-        <v>6</v>
-      </c>
-      <c r="E44" s="67" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E45" s="67" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G45" s="67" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D46" s="134">
-        <v>7</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G46" s="67" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E47" s="67" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G47" s="67" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D48" s="134">
-        <v>8</v>
-      </c>
-      <c r="E48" s="67" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G48" s="67" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F49" s="67" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G49" s="67" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F50" s="67" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G50" s="67" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F51" s="67" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G51" s="67" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E52" s="67" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F52" s="67" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G52" s="67" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F53" s="67" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G53" s="67" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="134" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C55" s="67" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D55" s="134">
+      <c r="H65" s="134" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="B67" s="134" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C67" s="67" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D67" s="134">
         <v>1</v>
       </c>
-      <c r="E55" s="67" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G55" s="67" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D56" s="134">
-        <v>2</v>
-      </c>
-      <c r="E56" s="67" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G56" s="67" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D57" s="134">
-        <v>3</v>
-      </c>
-      <c r="E57" s="67" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G57" s="67" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D58" s="134">
-        <v>4</v>
-      </c>
-      <c r="E58" s="67" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G58" s="67" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D59" s="134">
-        <v>5</v>
-      </c>
-      <c r="E59" s="67" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G59" s="67" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D60" s="134">
-        <v>6</v>
-      </c>
-      <c r="E60" s="67" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G60" s="67" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D61" s="134">
-        <v>7</v>
-      </c>
-      <c r="E61" s="67" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G61" s="67" t="s">
-        <v>1143</v>
+      <c r="E67" s="67" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G67" s="67" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F68" s="67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H68" s="134" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F69" s="67" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H69" s="134" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F70" s="67" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G70" s="67" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H70" s="134" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I70" s="123" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F71" s="67" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G71" s="67" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H71" s="134" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F72" s="67" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G72" s="67" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H72" s="134" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I72" s="123" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F73" s="67" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G73" s="67" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H73" s="134" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I73" s="123" t="s">
+        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -20153,33 +20419,52 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 A1:B2 E2:J2 E1:H1 A3:IS3 A4:B1048576 C4:IS65311">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:IS2 A1:B2 E1:G2 A4:B1048576 A3:IS3 H1 H2:J2 H5:IS11 H4 J4:IS4 H13:IS17 H12 J12:IS12 H19:IS23 H18 J18:IS18 H24:H25 J24:IS25 H26:IS43 H62:IS69 H61 J61:IS61 C4:G69 C75:G65315 C70:F74 H46:IS60 H44:H45 J44:IS45 H71:IS71 H70 J70:IS70 H74:IS65315 H72:H73 J72:IS73">
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-1253"/>
+    <hyperlink ref="I12" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1254"/>
+    <hyperlink ref="I18" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-1257"/>
+    <hyperlink ref="I24" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-1258"/>
+    <hyperlink ref="I25" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-1259"/>
+    <hyperlink ref="I61" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-1260"/>
+    <hyperlink ref="I44" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-1277"/>
+    <hyperlink ref="I45" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-1277"/>
+    <hyperlink ref="I70" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-1279"/>
+    <hyperlink ref="I72" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-1279"/>
+    <hyperlink ref="I73" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-1279"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId12"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -20188,7 +20473,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -20204,282 +20489,282 @@
     <col min="12" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="147" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:23" s="145" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="141" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1" s="142" t="s">
         <v>992</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="C1" s="142" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D1" s="142" t="s">
         <v>993</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="E1" s="143" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F1" s="144" t="s">
         <v>994</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="G1" s="144" t="s">
         <v>995</v>
       </c>
-      <c r="E1" s="145" t="s">
+      <c r="H1" s="144" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I1" s="144" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J1" s="144" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K1" s="144" t="s">
         <v>996</v>
       </c>
-      <c r="F1" s="146" t="s">
+    </row>
+    <row r="2" spans="1:23" s="145" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="146" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B2" s="146" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C2" s="146" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>998</v>
+      </c>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="148">
+        <v>1</v>
+      </c>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+    </row>
+    <row r="3" spans="1:23" s="145" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="146" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B3" s="146" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C3" s="146" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D3" s="146" t="s">
+        <v>999</v>
+      </c>
+      <c r="E3" s="146"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148">
+        <v>1</v>
+      </c>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+    </row>
+    <row r="4" spans="1:23" s="152" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="150" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="150" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D4" s="150" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151">
+        <v>1</v>
+      </c>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+    </row>
+    <row r="5" spans="1:23" s="145" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="153" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="150" t="s">
         <v>997</v>
       </c>
-      <c r="G1" s="146" t="s">
-        <v>998</v>
-      </c>
-      <c r="H1" s="146" t="s">
-        <v>999</v>
-      </c>
-      <c r="I1" s="146" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J1" s="146" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K1" s="146" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="147" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="148" t="s">
+      <c r="D5" s="146" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E5" s="146"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148">
+        <v>1</v>
+      </c>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+    </row>
+    <row r="6" spans="1:23" s="145" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="154" t="s">
         <v>1003</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B6" s="155" t="s">
         <v>1004</v>
       </c>
-      <c r="C2" s="148" t="s">
+      <c r="C6" s="150" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D6" s="154" t="s">
         <v>1005</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="151">
+        <v>1</v>
+      </c>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+    </row>
+    <row r="7" spans="1:23" s="145" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="154" t="s">
         <v>1006</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="150">
+      <c r="B7" s="155" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>997</v>
+      </c>
+      <c r="D7" s="154" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="148">
         <v>1</v>
       </c>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-    </row>
-    <row r="3" spans="1:23" s="147" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="148" t="s">
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+    </row>
+    <row r="8" spans="1:23" s="145" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="154" t="s">
         <v>1007</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B8" s="155" t="s">
         <v>1008</v>
       </c>
-      <c r="C3" s="148" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D3" s="148" t="s">
+      <c r="C8" s="150" t="s">
+        <v>997</v>
+      </c>
+      <c r="D8" s="154" t="s">
         <v>1009</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150">
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="151">
         <v>1</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-    </row>
-    <row r="4" spans="1:23" s="154" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="152" t="s">
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+    </row>
+    <row r="9" spans="1:23" s="145" customFormat="1" ht="33.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="154" t="s">
         <v>1010</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B9" s="155" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C9" s="150" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D9" s="154" t="s">
         <v>1011</v>
       </c>
-      <c r="C4" s="152" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D4" s="152" t="s">
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="148">
+        <v>1</v>
+      </c>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+    </row>
+    <row r="10" spans="1:23" s="145" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="154" t="s">
         <v>1012</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153">
+      <c r="B10" s="155" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C10" s="150" t="s">
+        <v>997</v>
+      </c>
+      <c r="D10" s="154" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="151">
         <v>1</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-    </row>
-    <row r="5" spans="1:23" s="147" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="155" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B5" s="148" t="s">
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+    </row>
+    <row r="11" spans="1:23" s="145" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="153" t="s">
         <v>1014</v>
       </c>
-      <c r="C5" s="152" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D5" s="148" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150">
+      <c r="B11" s="154" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C11" s="150" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D11" s="154" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154">
         <v>1</v>
       </c>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-    </row>
-    <row r="6" spans="1:23" s="147" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="156" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B6" s="157" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C6" s="152" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D6" s="156" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="153">
-        <v>1</v>
-      </c>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-    </row>
-    <row r="7" spans="1:23" s="147" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="156" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B7" s="157" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C7" s="152" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D7" s="156" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="150">
-        <v>1</v>
-      </c>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-    </row>
-    <row r="8" spans="1:23" s="147" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="156" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B8" s="157" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C8" s="152" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D8" s="156" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="153">
-        <v>1</v>
-      </c>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-    </row>
-    <row r="9" spans="1:23" s="147" customFormat="1" ht="33.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="156" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B9" s="157" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C9" s="152" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D9" s="156" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="150">
-        <v>1</v>
-      </c>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-    </row>
-    <row r="10" spans="1:23" s="147" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="156" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B10" s="157" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C10" s="152" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D10" s="156" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="153">
-        <v>1</v>
-      </c>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-    </row>
-    <row r="11" spans="1:23" s="147" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="155" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B11" s="156" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C11" s="152" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D11" s="156" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156">
-        <v>1</v>
-      </c>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="158"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
     </row>
   </sheetData>
   <phoneticPr fontId="40" type="noConversion"/>
